--- a/biology/Médecine/Planum_temporale/Planum_temporale.xlsx
+++ b/biology/Médecine/Planum_temporale/Planum_temporale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le planum temporale (PT) est un gyrus du lobe temporal du cortex cérébral. Il est situé sur la face supérieure du gyrus temporal supérieur, à l'intérieur de la scissure de Sylvius,  postérieurement au gyrus de Heschl et en s'enfonçant dans le cerveau jusqu'à l'insula.
 Il a une forme plus ou moins triangulaire, limitée en avant par le sillon postérieur du premier gyrus temporal transverse (gyrus de Heschl), et en arrière par un sillon correspondant à la terminaison horizontale de la scissure de Sylvius.
 Le PT correspond sur le plan cytoarchitectonique à du cortex auditif associatif. Dans l'hémisphère gauche, dominant pour le langage, il comprend l'aire de Wernicke, impliquée dans le langage. 
-L'examen de 100 cerveaux post mortem, a montré que l'aire du PT du côté gauche était plus grande dans 65 % des cas[1]. Par contre, une analyse volumétrique (prenant en compte aussi l'épaisseur du cortex) faite par IRM sur 42 enfants de 4 à 15 ans n'a pas décelé d'asymétrie hémisphérique des PT significative[2].
+L'examen de 100 cerveaux post mortem, a montré que l'aire du PT du côté gauche était plus grande dans 65 % des cas. Par contre, une analyse volumétrique (prenant en compte aussi l'épaisseur du cortex) faite par IRM sur 42 enfants de 4 à 15 ans n'a pas décelé d'asymétrie hémisphérique des PT significative.
 </t>
         </is>
       </c>
